--- a/tut05/output/0501ME22.xlsx
+++ b/tut05/output/0501ME22.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.636363636363637</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.297872340425531</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.571428571428571</v>
+        <v>8.57</v>
       </c>
       <c r="F6" t="n">
-        <v>9.130434782608695</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>9.782608695652174</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.32258064516129</v>
+        <v>8.32</v>
       </c>
       <c r="D8" t="n">
-        <v>8.314285714285715</v>
+        <v>8.31</v>
       </c>
       <c r="E8" t="n">
-        <v>8.380952380952381</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.527659574468085</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.733096085409253</v>
+        <v>8.73</v>
       </c>
       <c r="H8" t="n">
-        <v>8.87227414330218</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.930747922437673</v>
+        <v>8.93</v>
       </c>
     </row>
   </sheetData>
